--- a/results/mp/tinybert/corona/confidence/168/0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,397 +40,442 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>up</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>have</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>on</t>
   </si>
   <si>
     <t>that</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>it</t>
+    <t>are</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>from</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>this</t>
   </si>
   <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -788,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,10 +841,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -878,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -907,13 +952,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -925,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -957,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.72</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -975,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -999,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1007,13 +1052,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1025,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1049,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1057,13 +1102,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1075,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1099,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1107,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1125,31 +1170,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8">
-        <v>0.96875</v>
-      </c>
-      <c r="L8">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>31</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1157,37 +1202,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1199,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1207,37 +1252,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1249,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1257,13 +1302,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1275,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1299,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1307,13 +1352,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7207792207792207</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C12">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1325,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1349,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1357,13 +1402,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1375,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1399,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1407,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6363636363636364</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1425,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1449,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1457,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1475,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1499,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1507,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1525,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.8888888888888888</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1549,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1557,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -1575,31 +1620,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8888888888888888</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L17">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>31</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>8</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1607,13 +1652,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1625,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.8431372549019608</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1649,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1657,13 +1702,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4705882352941176</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1675,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.8392857142857143</v>
+        <v>0.78125</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1699,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1707,13 +1752,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4375</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1725,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.8333333333333334</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1749,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1757,13 +1802,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.407725321888412</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C21">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1775,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.8275862068965517</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1799,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1807,13 +1852,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3888888888888889</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1825,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.8181818181818182</v>
+        <v>0.72</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1849,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1857,13 +1902,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3793103448275862</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1875,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.803921568627451</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1899,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1907,13 +1952,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3703703703703703</v>
+        <v>0.1</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1925,31 +1970,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.8</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>8</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1957,13 +2002,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3684210526315789</v>
+        <v>0.05630026809651475</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1975,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1999,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2007,37 +2052,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2906976744186047</v>
+        <v>0.006962864721485411</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>61</v>
+        <v>2995</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.6875</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2049,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2057,37 +2102,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2826086956521739</v>
+        <v>0.005730659025787965</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>3123</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2099,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2107,37 +2152,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.275</v>
+        <v>0.004192453583549611</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>4988</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.7692307692307693</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2149,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2157,821 +2202,557 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2692307692307692</v>
+        <v>0.00268595041322314</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>4827</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L29">
+        <v>61</v>
+      </c>
+      <c r="M29">
+        <v>61</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
+      <c r="M30">
+        <v>18</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L33">
+        <v>17</v>
+      </c>
+      <c r="M33">
+        <v>17</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.575</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>23</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.5718015665796344</v>
+      </c>
+      <c r="L35">
+        <v>219</v>
+      </c>
+      <c r="M35">
+        <v>219</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.5625</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K29">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2454545454545455</v>
-      </c>
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>83</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="K40">
+        <v>0.5264705882352941</v>
+      </c>
+      <c r="L40">
+        <v>179</v>
+      </c>
+      <c r="M40">
+        <v>179</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K30">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L30">
+      <c r="K41">
+        <v>0.5220338983050847</v>
+      </c>
+      <c r="L41">
+        <v>154</v>
+      </c>
+      <c r="M41">
+        <v>154</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L44">
         <v>13</v>
       </c>
-      <c r="M30">
+      <c r="M44">
         <v>13</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L45">
+        <v>33</v>
+      </c>
+      <c r="M45">
+        <v>33</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>25</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L31">
-        <v>22</v>
-      </c>
-      <c r="M31">
-        <v>22</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>29</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.2148148148148148</v>
-      </c>
-      <c r="C33">
-        <v>29</v>
-      </c>
-      <c r="D33">
-        <v>29</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>106</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33">
-        <v>0.7534246575342466</v>
-      </c>
-      <c r="L33">
-        <v>55</v>
-      </c>
-      <c r="M33">
-        <v>55</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.2</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>32</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L34">
-        <v>16</v>
-      </c>
-      <c r="M34">
-        <v>16</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.05913978494623656</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>11</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>175</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35">
-        <v>0.64</v>
-      </c>
-      <c r="L35">
-        <v>16</v>
-      </c>
-      <c r="M35">
-        <v>16</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.005692599620493359</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>0.64</v>
-      </c>
-      <c r="F36">
-        <v>0.36</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1572</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
-      </c>
-      <c r="M36">
-        <v>8</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.005181347150259068</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>28</v>
-      </c>
-      <c r="E37">
-        <v>0.71</v>
-      </c>
-      <c r="F37">
-        <v>0.29</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1536</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37">
-        <v>0.6009389671361502</v>
-      </c>
-      <c r="L37">
-        <v>128</v>
-      </c>
-      <c r="M37">
-        <v>128</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0048</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <v>0.82</v>
-      </c>
-      <c r="F38">
-        <v>0.18</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1866</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38">
-        <v>0.6</v>
-      </c>
-      <c r="L38">
-        <v>12</v>
-      </c>
-      <c r="M38">
-        <v>12</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.00409626216077829</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>44</v>
-      </c>
-      <c r="E39">
-        <v>0.82</v>
-      </c>
-      <c r="F39">
-        <v>0.18</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1945</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.004081632653061225</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <v>38</v>
-      </c>
-      <c r="E40">
-        <v>0.82</v>
-      </c>
-      <c r="F40">
-        <v>0.18</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1708</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-      <c r="M42">
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="L43">
-        <v>75</v>
-      </c>
-      <c r="M43">
-        <v>75</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K44">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L44">
-        <v>15</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L45">
-        <v>77</v>
-      </c>
-      <c r="M45">
-        <v>77</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K46">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>16</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>9</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48">
-        <v>0.52</v>
-      </c>
-      <c r="L48">
-        <v>13</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>12</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2983,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3009,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>0.5</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3035,21 +2816,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K52">
-        <v>0.4857142857142857</v>
+        <v>0.40625</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3061,21 +2842,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K53">
-        <v>0.48</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L53">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3087,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K54">
-        <v>0.4736842105263158</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3113,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K55">
-        <v>0.4324324324324325</v>
+        <v>0.375</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3139,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K56">
-        <v>0.391304347826087</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L56">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3165,47 +2946,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K57">
-        <v>0.3684210526315789</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K58">
-        <v>0.34375</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L58">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3217,21 +2998,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K59">
-        <v>0.3333333333333333</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L59">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3243,21 +3024,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K60">
-        <v>0.2407407407407407</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3269,21 +3050,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K61">
-        <v>0.2051282051282051</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3295,47 +3076,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K62">
-        <v>0.1891891891891892</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K63">
-        <v>0.103448275862069</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L63">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3347,99 +3128,99 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K64">
-        <v>0.1</v>
+        <v>0.1225961538461538</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="M64">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="N64">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>63</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K65">
-        <v>0.09022556390977443</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="L65">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M65">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>121</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K66">
-        <v>0.08333333333333333</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L66">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>88</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K67">
-        <v>0.08080808080808081</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3451,21 +3232,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K68">
-        <v>0.07894736842105263</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L68">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3477,73 +3258,73 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>420</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K69">
-        <v>0.06306306306306306</v>
+        <v>0.07991803278688525</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>208</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K70">
-        <v>0.05853658536585366</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K71">
-        <v>0.05459057071960298</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3555,229 +3336,229 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>381</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K72">
-        <v>0.0539906103286385</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>403</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K73">
-        <v>0.05263157894736842</v>
+        <v>0.0658882402001668</v>
       </c>
       <c r="L73">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="M73">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>198</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K74">
-        <v>0.05076142131979695</v>
+        <v>0.06215722120658135</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N74">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>187</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K75">
-        <v>0.04878048780487805</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L75">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M75">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N75">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O75">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>156</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K76">
-        <v>0.04265402843601896</v>
+        <v>0.06085192697768763</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="M76">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>202</v>
+        <v>926</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K77">
-        <v>0.03891891891891892</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L77">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M77">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N77">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>889</v>
+        <v>840</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K78">
-        <v>0.03791469194312796</v>
+        <v>0.05444444444444444</v>
       </c>
       <c r="L78">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="M78">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N78">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>203</v>
+        <v>851</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K79">
-        <v>0.03514376996805112</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L79">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M79">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N79">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="O79">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>302</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K80">
-        <v>0.03386004514672687</v>
+        <v>0.05214723926380368</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>0.9399999999999999</v>
@@ -3789,99 +3570,99 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>428</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K81">
-        <v>0.03308823529411765</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M81">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K82">
-        <v>0.03308823529411765</v>
+        <v>0.04686035613870666</v>
       </c>
       <c r="L82">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="M82">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="N82">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="O82">
-        <v>0.18</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>263</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K83">
-        <v>0.03222918531781558</v>
+        <v>0.04595588235294118</v>
       </c>
       <c r="L83">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M83">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1081</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K84">
-        <v>0.02816901408450704</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3893,281 +3674,281 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>621</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K85">
-        <v>0.02769230769230769</v>
+        <v>0.04525455688246386</v>
       </c>
       <c r="L85">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="M85">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="N85">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>316</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K86">
-        <v>0.02767749699157641</v>
+        <v>0.04508670520231214</v>
       </c>
       <c r="L86">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M86">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N86">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O86">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>808</v>
+        <v>826</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K87">
-        <v>0.025</v>
+        <v>0.04465290806754221</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>273</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K88">
-        <v>0.02393617021276596</v>
+        <v>0.04142739950779328</v>
       </c>
       <c r="L88">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="M88">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>367</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K89">
-        <v>0.02259887005649718</v>
+        <v>0.03990610328638498</v>
       </c>
       <c r="L89">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M89">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>346</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="K90">
-        <v>0.02149973780807551</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="L90">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M90">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N90">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="O90">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>1866</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="K91">
-        <v>0.01817264008076729</v>
+        <v>0.03661327231121281</v>
       </c>
       <c r="L91">
+        <v>32</v>
+      </c>
+      <c r="M91">
         <v>36</v>
       </c>
-      <c r="M91">
-        <v>44</v>
-      </c>
       <c r="N91">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="O91">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>1945</v>
+        <v>842</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K92">
-        <v>0.01789473684210526</v>
+        <v>0.03322259136212625</v>
       </c>
       <c r="L92">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N92">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="O92">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>933</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="K93">
-        <v>0.01782633697527315</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="L93">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M93">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N93">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>1708</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K94">
-        <v>0.01705756929637527</v>
+        <v>0.03282275711159737</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N94">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>922</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K95">
-        <v>0.0166358595194085</v>
+        <v>0.03258145363408521</v>
       </c>
       <c r="L95">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N95">
         <v>0.9</v>
@@ -4179,111 +3960,761 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>532</v>
+        <v>772</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="K96">
-        <v>0.012853470437018</v>
+        <v>0.0315712187958884</v>
       </c>
       <c r="L96">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M96">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N96">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="O96">
-        <v>0.29</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>1536</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K97">
-        <v>0.01261467889908257</v>
+        <v>0.03132530120481928</v>
       </c>
       <c r="L97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M97">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N97">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="O97">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>861</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K98">
-        <v>0.01007556675062972</v>
+        <v>0.0313064419024684</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="M98">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="N98">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="O98">
-        <v>0.36</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>1572</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K99">
+        <v>0.03121045972163644</v>
+      </c>
+      <c r="L99">
+        <v>74</v>
+      </c>
+      <c r="M99">
+        <v>82</v>
+      </c>
+      <c r="N99">
+        <v>0.9</v>
+      </c>
+      <c r="O99">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K100">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="L100">
+        <v>15</v>
+      </c>
+      <c r="M100">
+        <v>15</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K101">
+        <v>0.03073286052009456</v>
+      </c>
+      <c r="L101">
+        <v>13</v>
+      </c>
+      <c r="M101">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0.93</v>
+      </c>
+      <c r="O101">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
+      <c r="J102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102">
+        <v>0.03032659409020218</v>
+      </c>
+      <c r="L102">
+        <v>156</v>
+      </c>
+      <c r="M102">
+        <v>177</v>
+      </c>
+      <c r="N102">
+        <v>0.88</v>
+      </c>
+      <c r="O102">
+        <v>0.12</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
+      <c r="J103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K103">
+        <v>0.03014553014553015</v>
+      </c>
+      <c r="L103">
+        <v>29</v>
+      </c>
+      <c r="M103">
+        <v>35</v>
+      </c>
+      <c r="N103">
+        <v>0.83</v>
+      </c>
+      <c r="O103">
+        <v>0.17</v>
+      </c>
+      <c r="P103" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
+      <c r="J104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K104">
+        <v>0.02998696219035202</v>
+      </c>
+      <c r="L104">
+        <v>23</v>
+      </c>
+      <c r="M104">
+        <v>26</v>
+      </c>
+      <c r="N104">
+        <v>0.88</v>
+      </c>
+      <c r="O104">
+        <v>0.12</v>
+      </c>
+      <c r="P104" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
+      <c r="J105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K105">
+        <v>0.0296127562642369</v>
+      </c>
+      <c r="L105">
+        <v>26</v>
+      </c>
+      <c r="M105">
+        <v>30</v>
+      </c>
+      <c r="N105">
+        <v>0.87</v>
+      </c>
+      <c r="O105">
+        <v>0.13</v>
+      </c>
+      <c r="P105" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
+      <c r="J106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K106">
+        <v>0.02959094865100087</v>
+      </c>
+      <c r="L106">
+        <v>68</v>
+      </c>
+      <c r="M106">
+        <v>79</v>
+      </c>
+      <c r="N106">
+        <v>0.86</v>
+      </c>
+      <c r="O106">
+        <v>0.14</v>
+      </c>
+      <c r="P106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107">
+        <v>0.02948801036941024</v>
+      </c>
+      <c r="L107">
+        <v>91</v>
+      </c>
+      <c r="M107">
+        <v>112</v>
+      </c>
+      <c r="N107">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O107">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K99">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="L99">
-        <v>8</v>
-      </c>
-      <c r="M99">
-        <v>10</v>
-      </c>
-      <c r="N99">
-        <v>0.8</v>
-      </c>
-      <c r="O99">
-        <v>0.2</v>
-      </c>
-      <c r="P99" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q99">
-        <v>984</v>
+      <c r="K108">
+        <v>0.02947845804988662</v>
+      </c>
+      <c r="L108">
+        <v>13</v>
+      </c>
+      <c r="M108">
+        <v>13</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K109">
+        <v>0.02892848877574635</v>
+      </c>
+      <c r="L109">
+        <v>125</v>
+      </c>
+      <c r="M109">
+        <v>132</v>
+      </c>
+      <c r="N109">
+        <v>0.95</v>
+      </c>
+      <c r="O109">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K110">
+        <v>0.02807017543859649</v>
+      </c>
+      <c r="L110">
+        <v>16</v>
+      </c>
+      <c r="M110">
+        <v>18</v>
+      </c>
+      <c r="N110">
+        <v>0.89</v>
+      </c>
+      <c r="O110">
+        <v>0.11</v>
+      </c>
+      <c r="P110" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K111">
+        <v>0.02692307692307692</v>
+      </c>
+      <c r="L111">
+        <v>28</v>
+      </c>
+      <c r="M111">
+        <v>28</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K112">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="L112">
+        <v>30</v>
+      </c>
+      <c r="M112">
+        <v>35</v>
+      </c>
+      <c r="N112">
+        <v>0.86</v>
+      </c>
+      <c r="O112">
+        <v>0.14</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K113">
+        <v>0.02627511591962906</v>
+      </c>
+      <c r="L113">
+        <v>17</v>
+      </c>
+      <c r="M113">
+        <v>17</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K114">
+        <v>0.02568093385214008</v>
+      </c>
+      <c r="L114">
+        <v>33</v>
+      </c>
+      <c r="M114">
+        <v>37</v>
+      </c>
+      <c r="N114">
+        <v>0.89</v>
+      </c>
+      <c r="O114">
+        <v>0.11</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K115">
+        <v>0.0247787610619469</v>
+      </c>
+      <c r="L115">
+        <v>14</v>
+      </c>
+      <c r="M115">
+        <v>16</v>
+      </c>
+      <c r="N115">
+        <v>0.88</v>
+      </c>
+      <c r="O115">
+        <v>0.12</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K116">
+        <v>0.024</v>
+      </c>
+      <c r="L116">
+        <v>15</v>
+      </c>
+      <c r="M116">
+        <v>17</v>
+      </c>
+      <c r="N116">
+        <v>0.88</v>
+      </c>
+      <c r="O116">
+        <v>0.12</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K117">
+        <v>0.02323008849557522</v>
+      </c>
+      <c r="L117">
+        <v>21</v>
+      </c>
+      <c r="M117">
+        <v>22</v>
+      </c>
+      <c r="N117">
+        <v>0.95</v>
+      </c>
+      <c r="O117">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K118">
+        <v>0.02322340919647004</v>
+      </c>
+      <c r="L118">
+        <v>50</v>
+      </c>
+      <c r="M118">
+        <v>55</v>
+      </c>
+      <c r="N118">
+        <v>0.91</v>
+      </c>
+      <c r="O118">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K119">
+        <v>0.02132998745294856</v>
+      </c>
+      <c r="L119">
+        <v>51</v>
+      </c>
+      <c r="M119">
+        <v>54</v>
+      </c>
+      <c r="N119">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O119">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120">
+        <v>0.01885014137606032</v>
+      </c>
+      <c r="L120">
+        <v>60</v>
+      </c>
+      <c r="M120">
+        <v>78</v>
+      </c>
+      <c r="N120">
+        <v>0.77</v>
+      </c>
+      <c r="O120">
+        <v>0.23</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K121">
+        <v>0.01843971631205674</v>
+      </c>
+      <c r="L121">
+        <v>13</v>
+      </c>
+      <c r="M121">
+        <v>16</v>
+      </c>
+      <c r="N121">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O121">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K122">
+        <v>0.0181058495821727</v>
+      </c>
+      <c r="L122">
+        <v>13</v>
+      </c>
+      <c r="M122">
+        <v>15</v>
+      </c>
+      <c r="N122">
+        <v>0.87</v>
+      </c>
+      <c r="O122">
+        <v>0.13</v>
+      </c>
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K123">
+        <v>0.01642178046672429</v>
+      </c>
+      <c r="L123">
+        <v>19</v>
+      </c>
+      <c r="M123">
+        <v>23</v>
+      </c>
+      <c r="N123">
+        <v>0.83</v>
+      </c>
+      <c r="O123">
+        <v>0.17</v>
+      </c>
+      <c r="P123" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K124">
+        <v>0.0160481444332999</v>
+      </c>
+      <c r="L124">
+        <v>16</v>
+      </c>
+      <c r="M124">
+        <v>18</v>
+      </c>
+      <c r="N124">
+        <v>0.89</v>
+      </c>
+      <c r="O124">
+        <v>0.11</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
